--- a/modelos_epever.xlsx
+++ b/modelos_epever.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GOENG ENERGIA</t>
+          <t>BARRIOS750820240919162716</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>controlador de carga mppt 40a epver xtra 4415n 48v 24v 12v</t>
+          <t>bateria de litio epever 100a 24v (lfp2.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,17 +497,17 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>998.45</v>
+        <v>6325</v>
       </c>
       <c r="G2" t="n">
-        <v>3993.8</v>
+        <v>6325</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>INVERSOR</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>841.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3366.8</v>
+        <v>5050.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -550,12 +550,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SEG ONLINE</t>
+          <t>OPUS SOLAR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>inversor senoidal ip 1000w epever 12v 11</t>
+          <t>inversor senoidal puro 24/220v 3000w - s</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1562</v>
+        <v>1959.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3124</v>
+        <v>1959.9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>INVERSOR 1000W</t>
+          <t>INVERSOR 3000W</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NEOSOLAR ENERGIA</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inversor senoidal epever ipower plus ip1</t>
+          <t>controlador de carga epever mppt 40a - t</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,26 +608,26 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2199.99</v>
+        <v>1096.41</v>
       </c>
       <c r="G5" t="n">
-        <v>2199.99</v>
+        <v>1096.41</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>INVERSOR 1000W</t>
+          <t>INVERSOR</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NEOSOLAR ENERGIA</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>controlador de carga mppt epever 30a 12/</t>
+          <t>controlador de carga epever pwm 30a 12/2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>698.9</v>
+        <v>234.09</v>
       </c>
       <c r="G6" t="n">
-        <v>1397.8</v>
+        <v>468.18</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>controlador de carga mppt 40a (triron 42</t>
+          <t>controlador de carga epever pwm 10a - ls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>1147.41</v>
+        <v>152.91</v>
       </c>
       <c r="G7" t="n">
-        <v>1147.41</v>
+        <v>458.73</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,12 +694,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NEOSOLAR ENERGIA</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>controlador de carga solar mppt 40a 12/2</t>
+          <t>controlador de carga epever pwm 20a - ls</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>945.9</v>
+        <v>195.41</v>
       </c>
       <c r="G8" t="n">
-        <v>945.9</v>
+        <v>390.82</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -730,12 +730,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ACHEI ENERGIA</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>controlador de carga mppt 30a - triron32</t>
+          <t>controlador de carga epever vs4524au pwm 45a 12/24v</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>810.35</v>
+        <v>389.9</v>
       </c>
       <c r="G9" t="n">
-        <v>810.35</v>
+        <v>389.9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -766,12 +766,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NEOSOLAR ENERGIA</t>
+          <t>PEDERNALES123</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>controlador de carga epever vs4524au pwm 45a 12/24v</t>
+          <t>módulo comunicação epever wifi 2.4g rj45</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>389.9</v>
+        <v>299</v>
       </c>
       <c r="G10" t="n">
-        <v>779.8</v>
+        <v>299</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -802,12 +802,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACHEI ENERGIA</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>controlador de carga epever pwm 20a - ls</t>
+          <t>controlador de carga solar pwm 20a com usb</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>195.41</v>
+        <v>262</v>
       </c>
       <c r="G11" t="n">
-        <v>390.82</v>
+        <v>262</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -838,12 +838,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SEG ONLINE</t>
+          <t>NEOSOLAR ENERGIA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>controlador de carga solar 30a 12/24v -</t>
+          <t>controlador de carga pwm 30a 12/24v epev</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>299</v>
+        <v>229.9</v>
       </c>
       <c r="G12" t="n">
-        <v>299</v>
+        <v>229.9</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -874,12 +874,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NEOSOLAR ENERGIA</t>
+          <t>ACHEI ENERGIA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>controlador de carga solar pwm 20a com usb</t>
+          <t>display remoto para controlador de carga</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>262</v>
+        <v>215.38</v>
       </c>
       <c r="G13" t="n">
-        <v>262</v>
+        <v>215.38</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>controlador de carga epever pwm 20a</t>
+          <t>cabo para comunicação de controlador de</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,228 +932,12 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>247</v>
+        <v>36.29</v>
       </c>
       <c r="G14" t="n">
-        <v>247</v>
+        <v>36.29</v>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GOENG ENERGIA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>monitoramento remoto epever - modulo wif</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>EPEVER</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>228</v>
-      </c>
-      <c r="G15" t="n">
-        <v>228</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ACHEI ENERGIA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>display remoto para controlador de carga</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>EPEVER</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>226.71</v>
-      </c>
-      <c r="G16" t="n">
-        <v>226.71</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ACHEI ENERGIA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>display remoto para controlador de carga</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>EPEVER</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>215.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>215.38</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NEOSOLAR ENERGIA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>controlador de carga pwm 20a 12/24v epev</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EPEVER</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ACHEI ENERGIA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>controlador de carga epever pwm 10a - ls</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>EPEVER</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>152.91</v>
-      </c>
-      <c r="G19" t="n">
-        <v>152.91</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ACHEI ENERGIA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>sensor de temperatura</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>EPEVER</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="G20" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>INVERSOR</t>
         </is>
